--- a/data/Cerro Navia.xlsx
+++ b/data/Cerro Navia.xlsx
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">

--- a/data/Cerro Navia.xlsx
+++ b/data/Cerro Navia.xlsx
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">

--- a/data/Cerro Navia.xlsx
+++ b/data/Cerro Navia.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F65" t="n">

--- a/data/Cerro Navia.xlsx
+++ b/data/Cerro Navia.xlsx
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7652,12 +7652,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7927,7 +7927,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">

--- a/data/Cerro Navia.xlsx
+++ b/data/Cerro Navia.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">

--- a/data/Cerro Navia.xlsx
+++ b/data/Cerro Navia.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J175"/>
+  <dimension ref="A1:J176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Condominio Parque La Hondonada</t>
+          <t>Parque Las Violetas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SERVIU METROPOLITANO...</t>
+          <t>Constructora Inmobiliaria e Inversiones Oval Ltda</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>22974</v>
+        <v>37469</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/09/2020</t>
+          <t>04/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148017511&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159668066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Línea 7 Metro de Santiago</t>
+          <t>Condominio Parque La Hondonada</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>SERVIU METROPOLITANO...</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.528</v>
+        <v>22974</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27/06/2019</t>
+          <t>09/09/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143506003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148017511&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ampliación en S/E Cerro Navia</t>
+          <t>Línea 7 Metro de Santiago</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>20000</v>
+        <v>2.528</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/12/2018</t>
+          <t>27/06/2019</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142102581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143506003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Ampliación en S/E Cerro Navia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,20 +578,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>20/12/2018</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142102581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,30 +616,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LÍNEA ALTA TENSIÓN LO AGUIRRE-CERRO NAVIA 2X220 kV "MODERNIZACIÓN SISTEMA TRANSMISIÓN"</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>25/11/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130916220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,30 +664,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>LÍNEA ALTA TENSIÓN LO AGUIRRE-CERRO NAVIA 2X220 kV "MODERNIZACIÓN SISTEMA TRANSMISIÓN"</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>25/11/2015</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130916220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación S/E Cerro Navia 220 kV</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/04/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129403203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Ampliación S/E Cerro Navia 220 kV</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,30 +770,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>800</v>
+        <v>3000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>22/04/2014</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129403203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,11 +823,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -836,12 +836,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,11 +871,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>706</v>
+        <v>1500</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,20 +1826,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1979,21 +1979,21 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>POTENCIACIÓN LÍNEA DE TRANSMISIÓN ELÉCTRICA 110 kV CHENA - CERRO NAVIA TRAMO TAP SAN JOSÉ - TAP PUDAHUEL</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3070</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>29/07/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5866677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Santa Elvira - Lote R3</t>
+          <t>POTENCIACIÓN LÍNEA DE TRANSMISIÓN ELÉCTRICA 110 kV CHENA - CERRO NAVIA TRAMO TAP SAN JOSÉ - TAP PUDAHUEL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVIU METROPOLITANO...</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>7450</v>
+        <v>3070</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>28/07/2011</t>
+          <t>29/07/2011</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5777343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5866677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Conjunto Habitacional Santa Elvira - Lote R3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVIU METROPOLITANO...</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>200</v>
+        <v>7450</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>28/07/2011</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5777343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Electrolito de Refinería</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CODELCO DIVISION VENTANAS</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/05/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5593037&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>06/05/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5593037&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5527108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5561129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Electrolito de Refinería</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>CODELCO DIVISION VENTANAS</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5042</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>11/04/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5527108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>150</v>
+        <v>5042</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4800</v>
+        <v>150</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Readecuación del Depósito y Terminal de Buses La Estrella</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Buses Metropolitana S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1250</v>
+        <v>4800</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>07/02/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5328713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Readecuación del Terminal y Depósito de Buses La Estrella</t>
+          <t>Readecuación del Depósito y Terminal de Buses La Estrella</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>27/01/2011</t>
+          <t>07/02/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5283798&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5328713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>Readecuación del Terminal y Depósito de Buses La Estrella</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Buses Metropolitana S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>75000</v>
+        <v>1250</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>27/01/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5283798&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S/E CERRO NAVIA 220 [KV]: INSTALACIÓN DE EQUIPOS DE CONTROL DE FLUJOS</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>30960</v>
+        <v>75000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>11/11/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5069411&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>S/E CERRO NAVIA 220 [KV]: INSTALACIÓN DE EQUIPOS DE CONTROL DE FLUJOS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>150</v>
+        <v>30960</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>11/11/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5069411&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2795,21 +2795,21 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>20</v>
+        <v>223</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>26/08/2010</t>
+          <t>15/09/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4935880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Transporte terrestre de Cianuro de Sodio entre la II y VI región</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>26/08/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4877350&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>1750</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>02/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestrede Cianuro de Sodio entre la II y VI Región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>02/08/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4806107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>1750</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>25/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BANCO DE CONDENSADORES 50 MVAR EN SUBESTACIONES ELECTRICAS ALTO JAHUEL Y CERRO NAVIA</t>
+          <t>Transporte Terrestre de Sustancias Toxicas desde la II Region a VI Region</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>5000</v>
+        <v>1</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>15/03/2010</t>
+          <t>25/05/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4604312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Santa Elvira - Lote 5</t>
+          <t>BANCO DE CONDENSADORES 50 MVAR EN SUBESTACIONES ELECTRICAS ALTO JAHUEL Y CERRO NAVIA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>14425</v>
+        <v>5000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>05/02/2010</t>
+          <t>15/03/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4363775&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4429203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Conjunto Habitacional Santa Elvira - Lote 5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Servicio de Vivienda y Urbanización SERVIU, RM</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>14425</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>05/02/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4363775&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>350</v>
+        <v>1350</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Loteo Villa Bicentenario - Cerro Navia (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,20 +3410,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Constructora Concreta S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>22000</v>
+        <v>350</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>28/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4279391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Instalación de Equipos de Compensación de Energía Eléctrica en Subestaciones Cerro Navia y Polpaico (e-seia)</t>
+          <t>Loteo Villa Bicentenario - Cerro Navia (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Constructora Concreta S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>50000</v>
+        <v>22000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>25/11/2009</t>
+          <t>28/12/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4214759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4279391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Instalación de Equipos de Compensación de Energía Eléctrica en Subestaciones Cerro Navia y Polpaico (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,20 +3506,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2000</v>
+        <v>50000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>25/11/2009</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4214759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>27/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Modificación Nº3 del Plan Regulador Comunal de Cerro Navia. Clasificación de la vialidad estructurante y prórroga de la declaratoria de utilidad pública de las vías colectoras. (e-seia)</t>
+          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cerro Navia</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>24/08/2009</t>
+          <t>27/08/2009</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>Modificación Nº3 del Plan Regulador Comunal de Cerro Navia. Clasificación de la vialidad estructurante y prórroga de la declaratoria de utilidad pública de las vías colectoras. (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,20 +3794,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Ilustre Municipalidad de Cerro Navia</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>20/08/2009</t>
+          <t>24/08/2009</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3986834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3851,21 +3851,21 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>07/08/2009</t>
+          <t>20/08/2009</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3983845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACIÓN DIA TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>800</v>
+        <v>28</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>07/08/2009</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3952839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MPRMS 100 - ACTUALIZACION EXTENSION URBANA Y RECONVERSION INDUSTRIAL (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>09/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3837736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>MPRMS 100 - ACTUALIZACION EXTENSION URBANA Y RECONVERSION INDUSTRIAL (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>09/06/2009</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3837736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN Nº2 PLAN REGULADOR COMUNAL DE CERRO NAVIA (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cerro Navia</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>27/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3720174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>MODIFICACIÓN Nº2 PLAN REGULADOR COMUNAL DE CERRO NAVIA (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ilustre Municipalidad de Cerro Navia</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>27/04/2009</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3720174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>19/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Modificación nº2 Plan Regulador Comunal Modificación nº2 PRC Cerro Navia (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,20 +4226,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Luis Plaza Sánchez</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>10/12/2008</t>
+          <t>19/01/2009</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3411389&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3504020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES I, II, III, IV, V, REGION METROPOLITANA Y VI REGION (e-seia)</t>
+          <t>Modificación nº2 Plan Regulador Comunal Modificación nº2 PRC Cerro Navia (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Luis Plaza Sánchez</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>09/12/2008</t>
+          <t>10/12/2008</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3404014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3411389&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES I, II, III, IV, V, REGION METROPOLITANA Y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>09/12/2008</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3404014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,12 +4418,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>16/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Cianuro de Sodio sólido desde los puertos de Valparaíso o San Antonio hasta Mina El Peñón (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>16/10/2008</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3248674&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,20 +4898,20 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5103,17 +5103,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,20 +5426,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,20 +5474,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,30 +5714,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>860</v>
+        <v>429</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>16/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>234</v>
+        <v>860</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>16/10/2007</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6015,17 +6015,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Canal Colector de Aguas LLuvias Hondonada Río Viejo, Comunas de Ceroo Navia y Pudahuel (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>9312</v>
+        <v>80</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>16/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2097908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y Procesamiento de Áridos" Exp. N°066/07 (e-seia)</t>
+          <t>Canal Colector de Aguas LLuvias Hondonada Río Viejo, Comunas de Ceroo Navia y Pudahuel (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>9312</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>12/04/2007</t>
+          <t>16/04/2007</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2097908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y Procesamiento de Áridos" Exp. N°066/07 (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,12 +6242,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>12/04/2007</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6495,17 +6495,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6543,17 +6543,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,15 +6583,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -6639,7 +6639,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,30 +6712,30 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Mapocho Urbano Limpio</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Aguas Andinas S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>64000</v>
+        <v>40</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>18/07/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1593747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,40 +6760,40 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
+          <t>Mapocho Urbano Limpio</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Aguas Andinas S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>860</v>
+        <v>64000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>18/07/2006</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1593747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6831,17 +6831,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1437988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,25 +6871,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>500</v>
+        <v>860</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331104&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6927,17 +6927,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,25 +6967,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>72</v>
+        <v>500</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -7023,17 +7023,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,20 +7058,20 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MPRMS-86 ENTORNO DE INFLUENCIA AEROPUERTO ARTURO MERINO BENITEZ MPRMS 86 AMB (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7119,17 +7119,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>23/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1117769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>MPRMS-86 ENTORNO DE INFLUENCIA AEROPUERTO ARTURO MERINO BENITEZ MPRMS 86 AMB (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,20 +7154,20 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>23/11/2005</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1117769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Comunal de Cerro Navia en el sentido de desafectar area verde y cambio de uso de suelo para equipamiento, clasificado en zona 7, equipamiento. Modificación PRC Cerro Navia (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,20 +7202,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Cerro Navia</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>27/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1036539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Modificación al Plan Regulador Comunal de Cerro Navia en el sentido de desafectar area verde y cambio de uso de suelo para equipamiento, clasificado en zona 7, equipamiento. Modificación PRC Cerro Navia (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,20 +7250,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Ilustre Municipalidad de Cerro Navia</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>27/09/2005</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1036539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7303,11 +7303,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,11 +7351,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,15 +7399,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7451,11 +7451,11 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,15 +7495,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7551,17 +7551,17 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,30 +7586,30 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7647,17 +7647,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,12 +7730,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -7743,7 +7743,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MPRMS 60 - "Incorpora Parque Adyacente a Cauce Rìo Viejo/La Hondonada, comuna Cerro Navia/Pudahuel" (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,20 +7826,20 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>30/01/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=264456&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>MPRMS 60 - "Incorpora Parque Adyacente a Cauce Rìo Viejo/La Hondonada, comuna Cerro Navia/Pudahuel" (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>30/01/2004</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=264456&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Línea 110 kV Cerro Navia - Lo Aguirre, Ref. Sector Cerro Navia -Torre 21 (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>16/09/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=153085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Línea 110 kV Cerro Navia - Lo Aguirre, Ref. Sector Cerro Navia -Torre 21 (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,20 +7970,20 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>200</v>
+        <v>970</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>16/09/2003</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=153085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Proyecto Aguas Lluvias Colector Diagonal Reny Comuna de Cerro Navia (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,20 +8018,20 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>SERVIU METROPOLITANO...</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1830</v>
+        <v>200</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>14/04/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=70562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
+          <t>Proyecto Aguas Lluvias Colector Diagonal Reny Comuna de Cerro Navia (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,20 +8066,20 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>DANIEL JULIO ROMERO GARCIA</t>
+          <t>SERVIU METROPOLITANO...</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>1830</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>04/11/2002</t>
+          <t>14/04/2003</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=70562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Transporte de Cianuro de Sodio Sólido Desde Puerto de San Antonio (V Región de Valparaíso) Hasta Faena Mina La Coipa Cía Minera Mantos de Oro (III Región de Atacama)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,12 +8114,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>DANIEL JULIO ROMERO GARCIA</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -8127,7 +8127,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>04/11/2002</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modificación MPRMS-60 Incorpora Parque Adyacente a Cauce Río Viejo/La Hondonada</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8175,17 +8175,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>24/07/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Modificación MPRMS-60 Incorpora Parque Adyacente a Cauce Río Viejo/La Hondonada</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>24/07/2002</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,15 +8263,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Colector de Aguas Lluvias José Joaquín Pérez</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,15 +8311,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Cerro Navia</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>24/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago MPRMS-9B</t>
+          <t>Colector de Aguas Lluvias José Joaquín Pérez</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,15 +8359,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>I. Municipalidad de Cerro Navia</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>12/07/2001</t>
+          <t>24/09/2001</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,30 +8392,30 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago MPRMS-9B</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>12/07/2001</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,30 +8440,30 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>1230</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8511,17 +8511,17 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago-P.R.M.S. Extracción y Procesamiento de Aridos MPRMS 41</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8559,17 +8559,17 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>02/01/2001</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Cerro Navia para Localización de Equipamiento Vecinal Aumento de Superficie de Area Verde y Mejoramiento de Vialidad y Estacionamientos; Sector Plaza Yugoslavia Conjunto Vecinal Yugoslavia Unidad Vecinal Nº7</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago-P.R.M.S. Extracción y Procesamiento de Aridos MPRMS 41</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Cerro Navia</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>14/09/2000</t>
+          <t>02/01/2001</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Mejoramiento Línea de Transmisión (110KV) San Pedro- Cerro Navia</t>
+          <t>Modificación Plan Regulador Comunal de Cerro Navia para Localización de Equipamiento Vecinal Aumento de Superficie de Area Verde y Mejoramiento de Vialidad y Estacionamientos; Sector Plaza Yugoslavia Conjunto Vecinal Yugoslavia Unidad Vecinal Nº7</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8642,20 +8642,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Compañia Transmisora del Norte Grande S.A</t>
+          <t>I. Municipalidad de Cerro Navia</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>10/07/2000</t>
+          <t>14/09/2000</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Refuerzo Línea 110 Kv San Cristóbal- Cerro Navia: Tramo Lo Boza-Cerro Navia</t>
+          <t>Mejoramiento Línea de Transmisión (110KV) San Pedro- Cerro Navia</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8690,20 +8690,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+          <t>Compañia Transmisora del Norte Grande S.A</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>190</v>
+        <v>10000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>24/09/1998</t>
+          <t>10/07/2000</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1587&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,43 +8728,91 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
+          <t>Refuerzo Línea 110 Kv San Cristóbal- Cerro Navia: Tramo Lo Boza-Cerro Navia</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>190</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>24/09/1998</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1587&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Cerro Navia</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F175" t="n">
+      <c r="F176" t="n">
         <v>850000</v>
       </c>
-      <c r="G175" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J175" t="inlineStr">
+      <c r="J176" t="inlineStr">
         <is>
           <t>Cerro Navia</t>
         </is>

--- a/data/Cerro Navia.xlsx
+++ b/data/Cerro Navia.xlsx
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">

--- a/data/Cerro Navia.xlsx
+++ b/data/Cerro Navia.xlsx
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">

--- a/data/Cerro Navia.xlsx
+++ b/data/Cerro Navia.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>11/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Cerro Navia.xlsx
+++ b/data/Cerro Navia.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7700,12 +7700,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
